--- a/unir/Corporación Municipal del Deporte de Vitacura.xlsx
+++ b/unir/Corporación Municipal del Deporte de Vitacura.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +358,1241 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>organismo_nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>anyo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Paterno</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Materno</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo cargo</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_calificacionp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>remuneracionbruta_mensual</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>remuliquida_mensual</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRECOMPLETO</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRECOMPLETO2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RUPERTO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BALTAZAR</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DIAZ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MANTECIÓN</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Manteción</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>692002</v>
+      </c>
+      <c r="J2" t="n">
+        <v>498562</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>RUPERTO</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>RUPERTO BALTAZAR DIAZ</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>RUPERTO BALTAZAR DIAZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VERONICA MACARENA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ACEITUNO</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ACEITUNO</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RECEPCIONISTA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Recepcionista</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1060178</v>
+      </c>
+      <c r="J3" t="n">
+        <v>714862</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>VERONICA MACARENA</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>VERONICA MACARENA ACEITUNO ACEITUNO</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>VERONICA MACARENA ACEITUNO ACEITUNO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PAULA VALESCA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SEGOVIA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>GARCES</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>RECEPCIONISTA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Recepcionista</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1089610</v>
+      </c>
+      <c r="J4" t="n">
+        <v>734887</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PAULA VALESCA</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PAULA VALESCA SEGOVIA GARCES</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PAULA VALESCA SEGOVIA GARCES</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>UGARTE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>GERENTE DE DEPORTES Y EVENTOS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Directivo</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>3112500</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2384062</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CAMILA</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CAMILA UGARTE PEREZ</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CAMILA UGARTE PEREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MARTIN EDUARDO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SOTOMAYOR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MESA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>DIRECTOR EJECUTIVO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Directivo</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>5112500</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4036577</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MARTIN EDUARDO</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>MARTIN EDUARDO SOTOMAYOR MESA</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>MARTIN EDUARDO SOTOMAYOR MESA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JOSE RUBEN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SANCHEZ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BARRIA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PROFESOR</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Profesor</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>917096</v>
+      </c>
+      <c r="J7" t="n">
+        <v>560887</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>JOSE RUBEN</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>JOSE RUBEN SANCHEZ BARRIA</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>JOSE RUBEN SANCHEZ BARRIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>YENNIFER PATRICIA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ORTEGA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>JEFE DE GESTIÓN DE ABASTECIMIENTO</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>2423126</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1731679</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>YENNIFER PATRICIA</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>YENNIFER PATRICIA ORTEGA GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>YENNIFER PATRICIA ORTEGA GUTIERREZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MICHAEL JORDAN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MUÑOZ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CASTRO</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CANCHERO</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Canchero</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>989478</v>
+      </c>
+      <c r="J9" t="n">
+        <v>663503</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>MICHAEL JORDAN</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>MICHAEL JORDAN MUÑOZ CASTRO</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MICHAEL JORDAN MUNOZ CASTRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JOSE ALEXIS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MUÑOZ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CASTRO</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CANCHERO</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Canchero</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1057502</v>
+      </c>
+      <c r="J10" t="n">
+        <v>709831</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>JOSE ALEXIS</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>JOSE ALEXIS MUÑOZ CASTRO</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>JOSE ALEXIS MUNOZ CASTRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>JAVIER ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LEAL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TRONCOSO</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>PROFESOR</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Profesor</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>848564</v>
+      </c>
+      <c r="J11" t="n">
+        <v>549296</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>JAVIER ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>JAVIER ALEJANDRO LEAL TRONCOSO</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>JAVIER ALEJANDRO LEAL TRONCOSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MARÍA JOSEFA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LARRAÍN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ZAÑARTU</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>SUBGERENTE DE DEPORTES Y EVENTOS</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Directivo</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>2391531</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1803863</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>MARIA JOSEFA</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>MARÍA JOSEFA LARRAÍN ZAÑARTU</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MARIA JOSEFA LARRAIN ZANARTU</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MARIA LEONTINA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HUERTA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>OYARCE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>RECEPCIONISTA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Recepcionista</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1074914</v>
+      </c>
+      <c r="J13" t="n">
+        <v>841517</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>MARIA LEONTINA</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>MARIA LEONTINA HUERTA OYARCE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>MARIA LEONTINA HUERTA OYARCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FRANCISCO IGNACIO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HENRIQUEZ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>OSSES</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CANCHERO</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Canchero</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>781832</v>
+      </c>
+      <c r="J14" t="n">
+        <v>494695</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>FRANCISCO IGNACIO</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>FRANCISCO IGNACIO HENRIQUEZ OSSES</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>FRANCISCO IGNACIO HENRIQUEZ OSSES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CLAUDIO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>JIMENEZ</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CANCHERO</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Canchero</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>720730</v>
+      </c>
+      <c r="J15" t="n">
+        <v>438503</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>CLAUDIO</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CLAUDIO GONZALEZ JIMENEZ</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CLAUDIO GONZALEZ JIMENEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LILY MARLEN DE LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GARRIDO</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>BADILLO</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>RECEPCIONISTA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Recepcionista</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1074189</v>
+      </c>
+      <c r="J16" t="n">
+        <v>731771</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>LILY MARLEN DE LOS ANGELES</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>LILY MARLEN DE LOS ANGELES GARRIDO BADILLO</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>LILY MARLEN DE LOS ANGELES GARRIDO BADILLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BERNARDO JOSE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GARCIA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>WILSON</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>GERENTE DEL CLUB DEPORTIVO VITACURA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Directivo</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3802753</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2997246</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>BERNARDO JOSE</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>BERNARDO JOSE GARCIA WILSON</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>BERNARDO JOSE GARCIA WILSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>JUAN PABLO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FLORES</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ASTUDILLO</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>GERENTE ADMINISTRACIÓN</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Directivo</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3402500</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2406272</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>JUAN PABLO</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>JUAN PABLO FLORES ASTUDILLO</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>JUAN PABLO FLORES ASTUDILLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ANA MARIA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CORNEJO</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>GONZALEZ</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>RECEPCIONISTA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Recepcionista</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1057884</v>
+      </c>
+      <c r="J19" t="n">
+        <v>710127</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ANA MARIA</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ANA MARIA CORNEJO GONZALEZ</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>ANA MARIA CORNEJO GONZALEZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Corporación Municipal del Deporte de Vitacura</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Diciembre</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MANUEL ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CEA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>PEREZ</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Profesional</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1742857</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1297601</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>MANUEL ALEJANDRO</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>MANUEL ALEJANDRO CEA PEREZ</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>MANUEL ALEJANDRO CEA PEREZ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>